--- a/data/trans_orig/P1002-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>8552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3548</v>
+        <v>3652</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18224</v>
+        <v>16903</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01730925613808926</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007181042481028306</v>
+        <v>0.007392017823725301</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03688671683726785</v>
+        <v>0.03421301801289815</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -765,19 +765,19 @@
         <v>13403</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6939</v>
+        <v>7699</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21579</v>
+        <v>22363</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02867007588205527</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01484388522669487</v>
+        <v>0.01646803226691419</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04615854243246727</v>
+        <v>0.04783690882229447</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>21955</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14148</v>
+        <v>14322</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33796</v>
+        <v>33240</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02283267453688046</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01471419967371436</v>
+        <v>0.01489423852372158</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03514717586296599</v>
+        <v>0.03456886161642968</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>485512</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>475840</v>
+        <v>477161</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>490516</v>
+        <v>490412</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9826907438619107</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9631132831627321</v>
+        <v>0.9657869819871022</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9928189575189716</v>
+        <v>0.9926079821762749</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>475</v>
@@ -836,19 +836,19 @@
         <v>454086</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>445910</v>
+        <v>445126</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>460550</v>
+        <v>459790</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9713299241179447</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9538414575675327</v>
+        <v>0.9521630911777056</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9851561147733051</v>
+        <v>0.9835319677330858</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>967</v>
@@ -857,19 +857,19 @@
         <v>939598</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>927757</v>
+        <v>928313</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>947405</v>
+        <v>947231</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9771673254631196</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.964852824137034</v>
+        <v>0.9654311383835702</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9852858003262858</v>
+        <v>0.9851057614762784</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>19369</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11787</v>
+        <v>11664</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>29460</v>
+        <v>31508</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02633545447394902</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01602618780711656</v>
+        <v>0.01585908711226523</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04005488806977241</v>
+        <v>0.04283889504059232</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -982,19 +982,19 @@
         <v>37658</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26463</v>
+        <v>26633</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52285</v>
+        <v>52041</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06020522700314229</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04230738177737345</v>
+        <v>0.04257990110870804</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08358954249431409</v>
+        <v>0.08319999965837928</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -1003,19 +1003,19 @@
         <v>57027</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43911</v>
+        <v>43091</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>74309</v>
+        <v>75144</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04190166085285359</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03226422882578803</v>
+        <v>0.03166205627684885</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05459990619862531</v>
+        <v>0.05521319373409407</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>716120</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>706029</v>
+        <v>703981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>723702</v>
+        <v>723825</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.973664545526051</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9599451119302276</v>
+        <v>0.9571611049594076</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9839738121928834</v>
+        <v>0.9841409128877348</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>557</v>
@@ -1053,19 +1053,19 @@
         <v>587836</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>573209</v>
+        <v>573453</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>599031</v>
+        <v>598861</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9397947729968578</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9164104575056858</v>
+        <v>0.9168000003416206</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9576926182226265</v>
+        <v>0.957420098891292</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1242</v>
@@ -1074,19 +1074,19 @@
         <v>1303955</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1286673</v>
+        <v>1285838</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1317071</v>
+        <v>1317891</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9580983391471464</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9454000938013747</v>
+        <v>0.9447868062659059</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9677357711742121</v>
+        <v>0.9683379437231512</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>25876</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16914</v>
+        <v>16459</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37769</v>
+        <v>38016</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04051633271995123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02648268525558202</v>
+        <v>0.02577094285105372</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05913753597221467</v>
+        <v>0.05952356329732432</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -1199,19 +1199,19 @@
         <v>35661</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24785</v>
+        <v>25844</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48446</v>
+        <v>49182</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05170153288881359</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03593396652839006</v>
+        <v>0.03746877117087766</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07023709337960198</v>
+        <v>0.07130424722635502</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1220,19 +1220,19 @@
         <v>61537</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47728</v>
+        <v>47533</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79200</v>
+        <v>78838</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04632396506136414</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03592897328247782</v>
+        <v>0.03578177556516772</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05962031574692406</v>
+        <v>0.05934742430271841</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>612792</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>600899</v>
+        <v>600652</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>621754</v>
+        <v>622209</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9594836672800487</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9408624640277853</v>
+        <v>0.9404764367026758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.973517314744418</v>
+        <v>0.9742290571489464</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>623</v>
@@ -1270,19 +1270,19 @@
         <v>654083</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>641298</v>
+        <v>640562</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>664959</v>
+        <v>663900</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9482984671111864</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9297629066203981</v>
+        <v>0.928695752773645</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9640660334716099</v>
+        <v>0.9625312288291223</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1213</v>
@@ -1291,19 +1291,19 @@
         <v>1266875</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1249212</v>
+        <v>1249574</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1280684</v>
+        <v>1280879</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9536760349386358</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9403796842530759</v>
+        <v>0.9406525756972816</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9640710267175221</v>
+        <v>0.9642182244348322</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>23828</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14997</v>
+        <v>15336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35270</v>
+        <v>36587</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04589838150032534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02888703220660225</v>
+        <v>0.02954013013920991</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06793920679327856</v>
+        <v>0.07047426714816943</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1416,19 +1416,19 @@
         <v>50362</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37523</v>
+        <v>38798</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64987</v>
+        <v>64883</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09766757163970378</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07276943251968529</v>
+        <v>0.07524228249947901</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1260307862572862</v>
+        <v>0.1258294576736537</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>71</v>
@@ -1437,19 +1437,19 @@
         <v>74190</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58652</v>
+        <v>59252</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91632</v>
+        <v>92641</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07169529988536909</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05668014069805829</v>
+        <v>0.05725998660385905</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08855174522271499</v>
+        <v>0.08952666491640958</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>495319</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>483877</v>
+        <v>482560</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>504150</v>
+        <v>503811</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9541016184996747</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9320607932067219</v>
+        <v>0.9295257328518313</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9711129677933978</v>
+        <v>0.9704598698607901</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>453</v>
@@ -1487,19 +1487,19 @@
         <v>465280</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>450655</v>
+        <v>450759</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>478119</v>
+        <v>476844</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9023324283602963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8739692137427137</v>
+        <v>0.8741705423263462</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9272305674803147</v>
+        <v>0.9247577175005206</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>915</v>
@@ -1508,19 +1508,19 @@
         <v>960599</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>943157</v>
+        <v>942148</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>976137</v>
+        <v>975537</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.928304700114631</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.911448254777285</v>
+        <v>0.9104733350835903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9433198593019417</v>
+        <v>0.9427400133961406</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>28853</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20136</v>
+        <v>19494</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40275</v>
+        <v>39155</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07461229053317667</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05206986437931774</v>
+        <v>0.05040974579829128</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1041478395501105</v>
+        <v>0.1012503469949705</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -1633,19 +1633,19 @@
         <v>39585</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28967</v>
+        <v>29467</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51985</v>
+        <v>52249</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09798664625322395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07170302565992843</v>
+        <v>0.07294000623440515</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1286807091743393</v>
+        <v>0.1293347336243513</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>70</v>
@@ -1654,19 +1654,19 @@
         <v>68439</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53971</v>
+        <v>52035</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86270</v>
+        <v>82843</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08655482193529318</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06825811771103593</v>
+        <v>0.06580893680484645</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1091069832985904</v>
+        <v>0.1047723797769655</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>357857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>346435</v>
+        <v>347555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>366574</v>
+        <v>367216</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9253877094668234</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8958521604498895</v>
+        <v>0.8987496530050294</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9479301356206823</v>
+        <v>0.9495902542017086</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>356</v>
@@ -1704,19 +1704,19 @@
         <v>364401</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>352001</v>
+        <v>351737</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>375019</v>
+        <v>374519</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.902013353746776</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8713192908256607</v>
+        <v>0.8706652663756489</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9282969743400716</v>
+        <v>0.9270599937655949</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>718</v>
@@ -1725,19 +1725,19 @@
         <v>722257</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>704426</v>
+        <v>707853</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>736725</v>
+        <v>738661</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9134451780647068</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8908930167014096</v>
+        <v>0.8952276202230345</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9317418822889642</v>
+        <v>0.9341910631951535</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>30442</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20946</v>
+        <v>21448</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41521</v>
+        <v>41525</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1040448959361552</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07159144748416807</v>
+        <v>0.07330503385789817</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1419109834513068</v>
+        <v>0.1419250483161746</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1850,19 +1850,19 @@
         <v>48737</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37216</v>
+        <v>36985</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60541</v>
+        <v>61319</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1421187601168079</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1085226670487419</v>
+        <v>0.1078483264054012</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1765384530023606</v>
+        <v>0.1788064906613426</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -1871,19 +1871,19 @@
         <v>79179</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>64665</v>
+        <v>64052</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>96766</v>
+        <v>96050</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1245900938099921</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1017516626159307</v>
+        <v>0.1007869828677871</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1522632650987477</v>
+        <v>0.1511363353581966</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>262141</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>251062</v>
+        <v>251058</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>271637</v>
+        <v>271135</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8959551040638448</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8580890165486932</v>
+        <v>0.8580749516838254</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9284085525158318</v>
+        <v>0.9266949661421017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>319</v>
@@ -1921,19 +1921,19 @@
         <v>294197</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>282393</v>
+        <v>281615</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>305718</v>
+        <v>305949</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8578812398831921</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8234615469976394</v>
+        <v>0.8211935093386574</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8914773329512581</v>
+        <v>0.8921516735945988</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>589</v>
@@ -1942,19 +1942,19 @@
         <v>556338</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>538751</v>
+        <v>539467</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>570852</v>
+        <v>571465</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8754099061900079</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8477367349012523</v>
+        <v>0.8488636646418034</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8982483373840693</v>
+        <v>0.8992130171322129</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>33613</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>24978</v>
+        <v>25136</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44691</v>
+        <v>45572</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1601514275934327</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1190086947879105</v>
+        <v>0.1197623939929474</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.212932149774176</v>
+        <v>0.2171289189106711</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>53</v>
@@ -2067,19 +2067,19 @@
         <v>61404</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>46428</v>
+        <v>47149</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76970</v>
+        <v>77793</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.183893733869013</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.139044020829297</v>
+        <v>0.1412037681499904</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2305112951143317</v>
+        <v>0.2329770905745473</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>88</v>
@@ -2088,19 +2088,19 @@
         <v>95017</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>78852</v>
+        <v>79998</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115876</v>
+        <v>114448</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1747300907830375</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1450036770278556</v>
+        <v>0.1471121162420901</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2130899928538474</v>
+        <v>0.2104632394195495</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>176270</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>165192</v>
+        <v>164311</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>184905</v>
+        <v>184747</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8398485724065673</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7870678502258243</v>
+        <v>0.7828710810893292</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8809913052120897</v>
+        <v>0.8802376060070526</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>237</v>
@@ -2138,19 +2138,19 @@
         <v>272504</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>256938</v>
+        <v>256115</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>287480</v>
+        <v>286759</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8161062661309869</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7694887048856683</v>
+        <v>0.7670229094254527</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8609559791707031</v>
+        <v>0.8587962318500098</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>422</v>
@@ -2159,19 +2159,19 @@
         <v>448774</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>427915</v>
+        <v>429343</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>464939</v>
+        <v>463793</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8252699092169625</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7869100071461529</v>
+        <v>0.7895367605804506</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8549963229721443</v>
+        <v>0.85288788375791</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>170534</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>149469</v>
+        <v>146978</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>198657</v>
+        <v>198701</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0520469061498945</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04561791769455013</v>
+        <v>0.04485752845310029</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06062996508829491</v>
+        <v>0.0606433966155803</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>277</v>
@@ -2284,19 +2284,19 @@
         <v>286809</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>255958</v>
+        <v>256009</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>319087</v>
+        <v>323660</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08487502925932525</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07574534866859473</v>
+        <v>0.07576039753044053</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09442693102527638</v>
+        <v>0.09578016608480538</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>445</v>
@@ -2305,19 +2305,19 @@
         <v>457343</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>416795</v>
+        <v>416963</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>500223</v>
+        <v>496096</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06871412794003992</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06262181069777648</v>
+        <v>0.06264707577693479</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0751566894242351</v>
+        <v>0.07453658112097733</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3106009</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3077886</v>
+        <v>3077842</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3127074</v>
+        <v>3129565</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9479530938501055</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9393700349117051</v>
+        <v>0.9393566033844197</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9543820823054499</v>
+        <v>0.9551424715468998</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3020</v>
@@ -2355,19 +2355,19 @@
         <v>3092388</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3060110</v>
+        <v>3055537</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3123239</v>
+        <v>3123188</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9151249707406748</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9055730689747237</v>
+        <v>0.9042198339151947</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9242546513314053</v>
+        <v>0.9242396024695594</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6066</v>
@@ -2376,19 +2376,19 @@
         <v>6198398</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6155518</v>
+        <v>6159645</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6238946</v>
+        <v>6238778</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9312858720599601</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9248433105757647</v>
+        <v>0.9254634188790227</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9373781893022235</v>
+        <v>0.9373529242230653</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>9197</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4483</v>
+        <v>4710</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16576</v>
+        <v>16224</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02025132267729865</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009870506502215316</v>
+        <v>0.01037015139590404</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03649986099984804</v>
+        <v>0.03572383397349492</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -2744,19 +2744,19 @@
         <v>19411</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12167</v>
+        <v>12012</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29797</v>
+        <v>30138</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04511767907108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02827948100294316</v>
+        <v>0.02791951642066487</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06925934485380005</v>
+        <v>0.07005114941111784</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -2765,19 +2765,19 @@
         <v>28608</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19766</v>
+        <v>18451</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40892</v>
+        <v>40471</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03234826805750874</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02235003943808107</v>
+        <v>0.02086325228070358</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04623804379119232</v>
+        <v>0.04576239686189044</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>444949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>437570</v>
+        <v>437922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>449663</v>
+        <v>449436</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9797486773227013</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.963500139000152</v>
+        <v>0.964276166026505</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9901294934977847</v>
+        <v>0.989629848604096</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>402</v>
@@ -2815,19 +2815,19 @@
         <v>410819</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>400433</v>
+        <v>400092</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>418063</v>
+        <v>418218</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.95488232092892</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9307406551461999</v>
+        <v>0.9299488505888823</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9717205189970568</v>
+        <v>0.9720804835793352</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>838</v>
@@ -2836,19 +2836,19 @@
         <v>855768</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>843484</v>
+        <v>843905</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>864610</v>
+        <v>865925</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9676517319424912</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9537619562088077</v>
+        <v>0.9542376031381095</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9776499605619189</v>
+        <v>0.9791367477192964</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>18226</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11550</v>
+        <v>11329</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28966</v>
+        <v>29565</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02652620817340015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01681049650610049</v>
+        <v>0.01648859631101599</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04215740725304377</v>
+        <v>0.04302968440526605</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -2961,19 +2961,19 @@
         <v>30542</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20595</v>
+        <v>19715</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43293</v>
+        <v>41303</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05004865323314694</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03374836859378198</v>
+        <v>0.03230661481357228</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07094281322601946</v>
+        <v>0.0676817636445865</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>45</v>
@@ -2982,19 +2982,19 @@
         <v>48768</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>35643</v>
+        <v>34627</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65710</v>
+        <v>64413</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03759090380545898</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02747394503168336</v>
+        <v>0.02669045880908854</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05064933224325727</v>
+        <v>0.0496502603021312</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>668861</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>658121</v>
+        <v>657522</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>675537</v>
+        <v>675758</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9734737918265999</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9578425927469563</v>
+        <v>0.956970315594734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9831895034938996</v>
+        <v>0.983511403688984</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>543</v>
@@ -3032,19 +3032,19 @@
         <v>579713</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>566962</v>
+        <v>568952</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>589660</v>
+        <v>590540</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.949951346766853</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9290571867739805</v>
+        <v>0.9323182363554134</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9662516314062181</v>
+        <v>0.9676933851864277</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1193</v>
@@ -3053,19 +3053,19 @@
         <v>1248574</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1231632</v>
+        <v>1232929</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1261699</v>
+        <v>1262715</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9624090961945411</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9493506677567427</v>
+        <v>0.9503497396978688</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9725260549683167</v>
+        <v>0.9733095411909114</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>30624</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19873</v>
+        <v>20536</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42959</v>
+        <v>43114</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0449742097854238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02918523108781448</v>
+        <v>0.03015962121558073</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06308946274256015</v>
+        <v>0.06331719582007653</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -3178,19 +3178,19 @@
         <v>78984</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62853</v>
+        <v>61474</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97202</v>
+        <v>96682</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1111115492662487</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08841941945755123</v>
+        <v>0.08647928579610438</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.136740005613836</v>
+        <v>0.1360096808067786</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -3199,19 +3199,19 @@
         <v>109608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>89859</v>
+        <v>90392</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>134870</v>
+        <v>132875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07875387589411473</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06456455988204392</v>
+        <v>0.06494739004862979</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09690474790668914</v>
+        <v>0.095471805329988</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>650302</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>637967</v>
+        <v>637812</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>661053</v>
+        <v>660390</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9550257902145762</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9369105372574401</v>
+        <v>0.9366828041799233</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9708147689121857</v>
+        <v>0.9698403787844192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>594</v>
@@ -3249,19 +3249,19 @@
         <v>631866</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>613648</v>
+        <v>614168</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>647997</v>
+        <v>649376</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8888884507337513</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8632599943861641</v>
+        <v>0.8639903191932214</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9115805805424488</v>
+        <v>0.9135207142038957</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1216</v>
@@ -3270,19 +3270,19 @@
         <v>1282167</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1256905</v>
+        <v>1258900</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1301916</v>
+        <v>1301383</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9212461241058852</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9030952520933107</v>
+        <v>0.9045281946700119</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.935435440117956</v>
+        <v>0.9350526099513701</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>39833</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28611</v>
+        <v>27738</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54920</v>
+        <v>54897</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06492007036545587</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04663165827063139</v>
+        <v>0.04520789627804724</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08951023398545035</v>
+        <v>0.08947168914933111</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>72</v>
@@ -3395,19 +3395,19 @@
         <v>80035</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63467</v>
+        <v>62478</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99378</v>
+        <v>98044</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1298851354745322</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1029979883289756</v>
+        <v>0.1013926171160394</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1612758678539455</v>
+        <v>0.1591102735882208</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>107</v>
@@ -3416,19 +3416,19 @@
         <v>119868</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>99804</v>
+        <v>97752</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>144963</v>
+        <v>144747</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09747223421372619</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08115756292301818</v>
+        <v>0.07948893279692347</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1178789361169733</v>
+        <v>0.1177032716236127</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>573730</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>558643</v>
+        <v>558666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>584952</v>
+        <v>585825</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9350799296345441</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9104897660145498</v>
+        <v>0.9105283108506689</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9533683417293686</v>
+        <v>0.9547921037219528</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>467</v>
@@ -3466,19 +3466,19 @@
         <v>536164</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>516821</v>
+        <v>518155</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>552732</v>
+        <v>553721</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8701148645254678</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8387241321460546</v>
+        <v>0.8408897264117795</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8970020116710247</v>
+        <v>0.8986073828839607</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>979</v>
@@ -3487,19 +3487,19 @@
         <v>1109894</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1084799</v>
+        <v>1085015</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1129958</v>
+        <v>1132010</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9025277657862738</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8821210638830266</v>
+        <v>0.8822967283763873</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9188424370769819</v>
+        <v>0.9205110672030764</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>39614</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29014</v>
+        <v>28616</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53533</v>
+        <v>53836</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09224791983964498</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06756367704822884</v>
+        <v>0.06663638006738919</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1246599442056873</v>
+        <v>0.1253664662429854</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>83</v>
@@ -3612,19 +3612,19 @@
         <v>88035</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>71356</v>
+        <v>71834</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>106575</v>
+        <v>105679</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.197058813802337</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1597231105238736</v>
+        <v>0.1607952319388506</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2385586652668598</v>
+        <v>0.2365530654993211</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>121</v>
@@ -3633,19 +3633,19 @@
         <v>127649</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>107917</v>
+        <v>107424</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>149533</v>
+        <v>150158</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1456890654798458</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1231685713728384</v>
+        <v>0.1226054192029998</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1706662353210268</v>
+        <v>0.1713792162713436</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>389815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>375896</v>
+        <v>375593</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>400415</v>
+        <v>400813</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.907752080160355</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8753400557943118</v>
+        <v>0.8746335337570146</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.932436322951771</v>
+        <v>0.9333636199326107</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>322</v>
@@ -3683,19 +3683,19 @@
         <v>358710</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>340170</v>
+        <v>341066</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>375389</v>
+        <v>374911</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8029411861976631</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7614413347331405</v>
+        <v>0.7634469345006795</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8402768894761263</v>
+        <v>0.8392047680611494</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>677</v>
@@ -3704,19 +3704,19 @@
         <v>748525</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>726641</v>
+        <v>726016</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>768257</v>
+        <v>768750</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8543109345201543</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8293337646789729</v>
+        <v>0.828620783728656</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8768314286271612</v>
+        <v>0.8773945807970001</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>39373</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27636</v>
+        <v>27345</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53863</v>
+        <v>52810</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1270960770421951</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08921140935479654</v>
+        <v>0.0882693814325386</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1738718060559656</v>
+        <v>0.1704720708107946</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -3829,19 +3829,19 @@
         <v>75122</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61329</v>
+        <v>60187</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91370</v>
+        <v>90705</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2127787953328816</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1737125411412348</v>
+        <v>0.1704769891944116</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2588009420138011</v>
+        <v>0.2569161993896257</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>110</v>
@@ -3850,19 +3850,19 @@
         <v>114494</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95613</v>
+        <v>96815</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>134513</v>
+        <v>135985</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1727337748047924</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1442484263165732</v>
+        <v>0.1460618780564195</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2029355175829166</v>
+        <v>0.2051567407316109</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>270413</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>255923</v>
+        <v>256976</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>282150</v>
+        <v>282441</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8729039229578049</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8261281939440344</v>
+        <v>0.8295279291892055</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9107885906452037</v>
+        <v>0.9117306185674618</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>268</v>
@@ -3900,19 +3900,19 @@
         <v>277929</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>261681</v>
+        <v>262346</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>291722</v>
+        <v>292864</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7872212046671184</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7411990579861986</v>
+        <v>0.7430838006103739</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8262874588587646</v>
+        <v>0.8295230108055882</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>515</v>
@@ -3921,19 +3921,19 @@
         <v>548343</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>528324</v>
+        <v>526852</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>567224</v>
+        <v>566022</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8272662251952076</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7970644824170834</v>
+        <v>0.7948432592683889</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8557515736834267</v>
+        <v>0.8539381219435804</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>53720</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41257</v>
+        <v>41626</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69841</v>
+        <v>69738</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2150063956171869</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1651253766237281</v>
+        <v>0.1666049357571552</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.279531351686247</v>
+        <v>0.2791181760397428</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>112</v>
@@ -4046,19 +4046,19 @@
         <v>124081</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>106414</v>
+        <v>104438</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>143431</v>
+        <v>143970</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3189918130655928</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2735736575531891</v>
+        <v>0.2684939273770605</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3687371976820912</v>
+        <v>0.370123747885311</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>158</v>
@@ -4067,19 +4067,19 @@
         <v>177801</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>154025</v>
+        <v>155941</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>202302</v>
+        <v>203124</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2783223840287466</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2411053113226173</v>
+        <v>0.2441046846118215</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3166764278119384</v>
+        <v>0.3179624188935238</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>196131</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>180010</v>
+        <v>180113</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>208594</v>
+        <v>208225</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7849936043828131</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.720468648313753</v>
+        <v>0.7208818239602568</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8348746233762717</v>
+        <v>0.8333950642428447</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>238</v>
@@ -4117,19 +4117,19 @@
         <v>264898</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>245548</v>
+        <v>245009</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>282565</v>
+        <v>284541</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6810081869344072</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6312628023179088</v>
+        <v>0.629876252114689</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7264263424468108</v>
+        <v>0.7315060726229395</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>414</v>
@@ -4138,19 +4138,19 @@
         <v>461029</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>436528</v>
+        <v>435706</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>484805</v>
+        <v>482889</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7216776159712535</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6833235721880615</v>
+        <v>0.6820375811064764</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7588946886773821</v>
+        <v>0.7558953153881784</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>230586</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>199314</v>
+        <v>200647</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>263489</v>
+        <v>261130</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06732842918983493</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05819748872309573</v>
+        <v>0.05858668507703232</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0769358020729087</v>
+        <v>0.07624692242660905</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>462</v>
@@ -4263,19 +4263,19 @@
         <v>496210</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>456431</v>
+        <v>447641</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>542880</v>
+        <v>538094</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1395295092315806</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1283439737729309</v>
+        <v>0.1258722863107273</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1526526451169389</v>
+        <v>0.1513068300136877</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>671</v>
@@ -4284,19 +4284,19 @@
         <v>726796</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>674521</v>
+        <v>673216</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>784978</v>
+        <v>783511</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1041090885459792</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09662109567559635</v>
+        <v>0.09643417675379984</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1124434051774719</v>
+        <v>0.1122331801093294</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3194202</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3161299</v>
+        <v>3163658</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3225474</v>
+        <v>3224141</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9326715708101651</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9230641979270913</v>
+        <v>0.923753077573391</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9418025112769044</v>
+        <v>0.9414133149229678</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2834</v>
@@ -4334,19 +4334,19 @@
         <v>3060099</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3013429</v>
+        <v>3018215</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3099878</v>
+        <v>3108668</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8604704907684194</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8473473548830608</v>
+        <v>0.8486931699863123</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8716560262270683</v>
+        <v>0.8741277136892728</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5832</v>
@@ -4355,19 +4355,19 @@
         <v>6254301</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6196119</v>
+        <v>6197586</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6306576</v>
+        <v>6307881</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8958909114540208</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8875565948225281</v>
+        <v>0.8877668198906706</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9033789043244036</v>
+        <v>0.9035658232462002</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>9315</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4444</v>
+        <v>4819</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16532</v>
+        <v>16768</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02220589606104258</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01059513609750371</v>
+        <v>0.01148839817853428</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03941315261245557</v>
+        <v>0.03997386574591599</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4723,19 +4723,19 @@
         <v>8845</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4031</v>
+        <v>4057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16849</v>
+        <v>16041</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02235049983808468</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01018478487450125</v>
+        <v>0.01025086582087194</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04257498995131027</v>
+        <v>0.04053192838750995</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -4744,19 +4744,19 @@
         <v>18160</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>11528</v>
+        <v>10878</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28430</v>
+        <v>29211</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0222760952815066</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01414137083130881</v>
+        <v>0.0133431957671547</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03487360398850987</v>
+        <v>0.03583251658576162</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>410148</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>402931</v>
+        <v>402695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>415019</v>
+        <v>414644</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9777941039389574</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9605868473875443</v>
+        <v>0.9600261342540839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9894048639024962</v>
+        <v>0.9885116018214656</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>395</v>
@@ -4794,19 +4794,19 @@
         <v>386910</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>378906</v>
+        <v>379714</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>391724</v>
+        <v>391698</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9776495001619153</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9574250100486896</v>
+        <v>0.95946807161249</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9898152151254987</v>
+        <v>0.989749134179128</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>779</v>
@@ -4815,19 +4815,19 @@
         <v>797058</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>786788</v>
+        <v>786007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>803690</v>
+        <v>804340</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9777239047184934</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.96512639601149</v>
+        <v>0.9641674834142384</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.985858629168691</v>
+        <v>0.9866568042328452</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>21957</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14156</v>
+        <v>14150</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32586</v>
+        <v>33504</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03718317893061227</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02397223418868113</v>
+        <v>0.02396369876351178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05518338482461781</v>
+        <v>0.05673838204368001</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -4940,19 +4940,19 @@
         <v>22237</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15091</v>
+        <v>14567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32078</v>
+        <v>32209</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03945922742218692</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02677839327705494</v>
+        <v>0.0258496159243329</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05692181851897596</v>
+        <v>0.05715434523128504</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -4961,19 +4961,19 @@
         <v>44194</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32672</v>
+        <v>32116</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57443</v>
+        <v>57748</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03829462464441816</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02831057083680424</v>
+        <v>0.0278292546917099</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04977515949091525</v>
+        <v>0.05003965126490974</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>568539</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>557910</v>
+        <v>556992</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>576340</v>
+        <v>576346</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9628168210693877</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9448166151753822</v>
+        <v>0.94326161795632</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9760277658113189</v>
+        <v>0.9760363012364882</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>556</v>
@@ -5011,19 +5011,19 @@
         <v>541307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>531466</v>
+        <v>531335</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>548453</v>
+        <v>548977</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9605407725778131</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9430781814810238</v>
+        <v>0.9428456547687142</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9732216067229449</v>
+        <v>0.9741503840756668</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1103</v>
@@ -5032,19 +5032,19 @@
         <v>1109846</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1096597</v>
+        <v>1096292</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1121368</v>
+        <v>1121924</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9617053753555819</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9502248405090848</v>
+        <v>0.9499603487350904</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9716894291631958</v>
+        <v>0.9721707453082901</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>22332</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13660</v>
+        <v>14508</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32379</v>
+        <v>34679</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03337599665025536</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02041586462108556</v>
+        <v>0.0216834096593569</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04839276882530888</v>
+        <v>0.05183007995252805</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -5157,19 +5157,19 @@
         <v>39386</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28956</v>
+        <v>28716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>51548</v>
+        <v>52610</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05955141828514703</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04378128833811228</v>
+        <v>0.04341751288182246</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07794003805697908</v>
+        <v>0.07954544120225193</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -5178,19 +5178,19 @@
         <v>61718</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>48803</v>
+        <v>46871</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77475</v>
+        <v>78832</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04638786160379796</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03668029653078976</v>
+        <v>0.03522843618632728</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05823097325136589</v>
+        <v>0.05925052298721814</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>646765</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>636718</v>
+        <v>634418</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>655437</v>
+        <v>654589</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9666240033497446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.951607231174691</v>
+        <v>0.9481699200474718</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9795841353789144</v>
+        <v>0.9783165903406431</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>625</v>
@@ -5228,19 +5228,19 @@
         <v>622000</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>609838</v>
+        <v>608776</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>632430</v>
+        <v>632670</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.940448581714853</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9220599619430213</v>
+        <v>0.9204545587977484</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9562187116618878</v>
+        <v>0.9565824871181777</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1242</v>
@@ -5249,19 +5249,19 @@
         <v>1268765</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1253008</v>
+        <v>1251651</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1281680</v>
+        <v>1283612</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9536121383962021</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9417690267486338</v>
+        <v>0.9407494770127819</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.96331970346921</v>
+        <v>0.9647715638136727</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>40925</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28866</v>
+        <v>29631</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54952</v>
+        <v>53697</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06334709028111976</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04468075842091609</v>
+        <v>0.04586507842997184</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08505861258662804</v>
+        <v>0.08311568412456265</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -5374,19 +5374,19 @@
         <v>62154</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48050</v>
+        <v>47752</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77502</v>
+        <v>76682</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09575782087066781</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07402794830012865</v>
+        <v>0.07356906783529457</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1194031843904518</v>
+        <v>0.1181397849686111</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -5395,19 +5395,19 @@
         <v>103079</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83963</v>
+        <v>84840</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>125024</v>
+        <v>126234</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07959035170342607</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06482965274734502</v>
+        <v>0.06550726148678912</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09653469698772468</v>
+        <v>0.09746890221225359</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>605123</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>591096</v>
+        <v>592351</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>617182</v>
+        <v>616417</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9366529097188803</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9149413874133723</v>
+        <v>0.9168843158754376</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9553192415790839</v>
+        <v>0.9541349215700282</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>543</v>
@@ -5445,19 +5445,19 @@
         <v>586923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>571575</v>
+        <v>572395</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>601027</v>
+        <v>601325</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9042421791293321</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8805968156095482</v>
+        <v>0.8818602150313889</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9259720516998713</v>
+        <v>0.9264309321647054</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1088</v>
@@ -5466,19 +5466,19 @@
         <v>1192046</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1170101</v>
+        <v>1168891</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1211162</v>
+        <v>1210285</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9204096482965739</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9034653030122753</v>
+        <v>0.9025310977877464</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.935170347252655</v>
+        <v>0.9344927385132109</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>27136</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17706</v>
+        <v>17940</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40126</v>
+        <v>40802</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05678046023901703</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03704748623748124</v>
+        <v>0.03753860997311613</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08396010174545677</v>
+        <v>0.08537485490228183</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -5591,19 +5591,19 @@
         <v>79290</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63478</v>
+        <v>63062</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98377</v>
+        <v>97193</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1595864611157435</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1277618057602917</v>
+        <v>0.1269237411998183</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1980024225576181</v>
+        <v>0.1956182219687655</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>93</v>
@@ -5612,19 +5612,19 @@
         <v>106427</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>88189</v>
+        <v>86693</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>127716</v>
+        <v>127973</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1091817611443473</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09047198291340317</v>
+        <v>0.08893702234599957</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1310221168159284</v>
+        <v>0.1312858587738103</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>450782</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>437792</v>
+        <v>437116</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>460212</v>
+        <v>459978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9432195397609829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9160398982545432</v>
+        <v>0.9146251450977182</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9629525137625188</v>
+        <v>0.9624613900268839</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>364</v>
@@ -5662,19 +5662,19 @@
         <v>417559</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>398472</v>
+        <v>399656</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>433371</v>
+        <v>433787</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8404135388842565</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8019975774423819</v>
+        <v>0.8043817780312345</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8722381942397083</v>
+        <v>0.8730762588001818</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>764</v>
@@ -5683,19 +5683,19 @@
         <v>868340</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>847051</v>
+        <v>846794</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>886578</v>
+        <v>888074</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8908182388556527</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8689778831840717</v>
+        <v>0.8687141412261894</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9095280170865969</v>
+        <v>0.9110629776540003</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>29645</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20111</v>
+        <v>20364</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41403</v>
+        <v>42166</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08866953127897136</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06015180824942219</v>
+        <v>0.06091009065269928</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1238375659981313</v>
+        <v>0.1261211958666106</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -5808,19 +5808,19 @@
         <v>67824</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52952</v>
+        <v>52806</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82222</v>
+        <v>83510</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1795413064521144</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1401717600562261</v>
+        <v>0.1397872275014126</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2176551374683246</v>
+        <v>0.2210654217219198</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>92</v>
@@ -5829,19 +5829,19 @@
         <v>97469</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>78881</v>
+        <v>80677</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116067</v>
+        <v>118061</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1368766501484128</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1107735619293169</v>
+        <v>0.1132950912900235</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1629943638908267</v>
+        <v>0.1657951191285655</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>304685</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>292927</v>
+        <v>292164</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>314219</v>
+        <v>313966</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9113304687210286</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8761624340018688</v>
+        <v>0.8738788041333896</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9398481917505779</v>
+        <v>0.9390899093473007</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>290</v>
@@ -5879,19 +5879,19 @@
         <v>309938</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>295540</v>
+        <v>294252</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>324810</v>
+        <v>324956</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8204586935478857</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7823448625316755</v>
+        <v>0.7789345782780799</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8598282399437738</v>
+        <v>0.8602127724985874</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>587</v>
@@ -5900,19 +5900,19 @@
         <v>614623</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>596025</v>
+        <v>594031</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>633211</v>
+        <v>631415</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8631233498515872</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8370056361091736</v>
+        <v>0.8342048808714345</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8892264380706831</v>
+        <v>0.8867049087099764</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>30098</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21557</v>
+        <v>20944</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40197</v>
+        <v>40225</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1171153848344717</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08387961156175551</v>
+        <v>0.08149425406450007</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.156410464635869</v>
+        <v>0.1565189977971332</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>75</v>
@@ -6025,19 +6025,19 @@
         <v>98375</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>80557</v>
+        <v>79006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>121632</v>
+        <v>117248</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2458347898267764</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2013066205270242</v>
+        <v>0.1974305432178307</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3039520284786461</v>
+        <v>0.292997026408658</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>109</v>
@@ -6046,19 +6046,19 @@
         <v>128474</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>106726</v>
+        <v>108990</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>152230</v>
+        <v>153902</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1954965504502567</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1624027923513655</v>
+        <v>0.1658481474438351</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2316460830733489</v>
+        <v>0.234190080180551</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>226900</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>216801</v>
+        <v>216773</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>235441</v>
+        <v>236054</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8828846151655283</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8435895353641307</v>
+        <v>0.8434810022028667</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9161203884382444</v>
+        <v>0.9185057459354999</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>226</v>
@@ -6096,19 +6096,19 @@
         <v>301794</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>278537</v>
+        <v>282921</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>319612</v>
+        <v>321163</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7541652101732237</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6960479715213541</v>
+        <v>0.7070029735913419</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7986933794729757</v>
+        <v>0.8025694567821693</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>494</v>
@@ -6117,19 +6117,19 @@
         <v>528693</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>504937</v>
+        <v>503265</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>550441</v>
+        <v>548177</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8045034495497433</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.768353916926651</v>
+        <v>0.7658099198194488</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8375972076486344</v>
+        <v>0.8341518525561648</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>181408</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>157509</v>
+        <v>154901</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>211356</v>
+        <v>208586</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0534440537564743</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04640328862307517</v>
+        <v>0.04563499933950266</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06226696394403217</v>
+        <v>0.06145104242093648</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>339</v>
@@ -6242,19 +6242,19 @@
         <v>378113</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>345047</v>
+        <v>339460</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>421667</v>
+        <v>421362</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.106674636335404</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09734593562487395</v>
+        <v>0.09576970858402277</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1189623545781974</v>
+        <v>0.118876249167771</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>512</v>
@@ -6263,19 +6263,19 @@
         <v>559521</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>512792</v>
+        <v>516538</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>609748</v>
+        <v>606123</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08063543046025795</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07390109124363026</v>
+        <v>0.07444105189315071</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08787393885071544</v>
+        <v>0.0873515454091955</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3212942</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3182994</v>
+        <v>3185764</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3236841</v>
+        <v>3239449</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9465559462435257</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.937733036055968</v>
+        <v>0.9385489575790636</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9535967113769248</v>
+        <v>0.9543650006604973</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2999</v>
@@ -6313,19 +6313,19 @@
         <v>3166429</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3122875</v>
+        <v>3123180</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3199495</v>
+        <v>3205082</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.893325363664596</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8810376454218026</v>
+        <v>0.881123750832229</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9026540643751262</v>
+        <v>0.9042302914159772</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6057</v>
@@ -6334,19 +6334,19 @@
         <v>6379371</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6329144</v>
+        <v>6332769</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6426100</v>
+        <v>6422354</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9193645695397421</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9121260611492846</v>
+        <v>0.9126484545908045</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9260989087563697</v>
+        <v>0.9255589481068494</v>
       </c>
     </row>
     <row r="27">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16380</v>
+        <v>19567</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01168768956793961</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04016635934564863</v>
+        <v>0.04798243123383085</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -6702,19 +6702,19 @@
         <v>21527</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10336</v>
+        <v>10253</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37218</v>
+        <v>37747</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0593837960031622</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02851212363103162</v>
+        <v>0.02828310890060191</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1026655681104866</v>
+        <v>0.1041264554607811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -6723,19 +6723,19 @@
         <v>26293</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14630</v>
+        <v>13796</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47725</v>
+        <v>45349</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03413387503668431</v>
+        <v>0.0341338750366843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01899271214053411</v>
+        <v>0.01791003724826303</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06195618164274487</v>
+        <v>0.05887151679005095</v>
       </c>
     </row>
     <row r="5">
@@ -6752,7 +6752,7 @@
         <v>403027</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>391413</v>
+        <v>388226</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6761,7 +6761,7 @@
         <v>0.9883123104320605</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9598336406543527</v>
+        <v>0.9520175687661691</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6773,19 +6773,19 @@
         <v>340985</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>325294</v>
+        <v>324765</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>352176</v>
+        <v>352259</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9406162039968378</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8973344318895136</v>
+        <v>0.8958735445392192</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9714878763689685</v>
+        <v>0.9717168910993982</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>367</v>
@@ -6794,19 +6794,19 @@
         <v>744012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>722580</v>
+        <v>724956</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>755675</v>
+        <v>756509</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9658661249633157</v>
+        <v>0.9658661249633156</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9380438183572551</v>
+        <v>0.9411284832099491</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9810072878594659</v>
+        <v>0.9820899627517369</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>14408</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6436</v>
+        <v>6237</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28286</v>
+        <v>28586</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03021281092739725</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01349575404480088</v>
+        <v>0.0130792555099087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05931415995616865</v>
+        <v>0.05994277835566839</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -6919,19 +6919,19 @@
         <v>29014</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17992</v>
+        <v>18795</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43949</v>
+        <v>43877</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05790237707652483</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03590722267660762</v>
+        <v>0.03750854369155918</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0877074061855392</v>
+        <v>0.08756390993491087</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -6940,19 +6940,19 @@
         <v>43422</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30490</v>
+        <v>29379</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>62754</v>
+        <v>62156</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04440008228252851</v>
+        <v>0.04440008228252852</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0311770467001693</v>
+        <v>0.03004109618987869</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06416715900809539</v>
+        <v>0.06355575174685114</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>462482</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>448604</v>
+        <v>448304</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470454</v>
+        <v>470653</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9697871890726028</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9406858400438316</v>
+        <v>0.9400572216443315</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9865042459551991</v>
+        <v>0.986920744490091</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>438</v>
@@ -6990,19 +6990,19 @@
         <v>472069</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>457134</v>
+        <v>457206</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>483091</v>
+        <v>482288</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9420976229234751</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9122925938144608</v>
+        <v>0.9124360900650889</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9640927773233925</v>
+        <v>0.9624914563084407</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>732</v>
@@ -7011,19 +7011,19 @@
         <v>934551</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>915219</v>
+        <v>915817</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>947483</v>
+        <v>948594</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9555999177174713</v>
+        <v>0.9555999177174714</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9358328409919044</v>
+        <v>0.936444248253149</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9688229532998308</v>
+        <v>0.9699589038101216</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>30366</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20536</v>
+        <v>20698</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44295</v>
+        <v>43167</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04891183302207364</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03307732560906015</v>
+        <v>0.03333956414012484</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07134662576157653</v>
+        <v>0.06952973407521296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -7136,19 +7136,19 @@
         <v>33333</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24382</v>
+        <v>23625</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43496</v>
+        <v>44366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0535786451540331</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03918988781631438</v>
+        <v>0.0379732236926438</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06991435698691864</v>
+        <v>0.07131155691382303</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -7157,19 +7157,19 @@
         <v>63700</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50481</v>
+        <v>49941</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80824</v>
+        <v>80046</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05124768410261052</v>
+        <v>0.05124768410261053</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04061317445681288</v>
+        <v>0.04017884568877857</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06502466617848844</v>
+        <v>0.06439875737062555</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>590471</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>576542</v>
+        <v>577670</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>600301</v>
+        <v>600139</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9510881669779263</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9286533742384238</v>
+        <v>0.9304702659247871</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9669226743909399</v>
+        <v>0.9666604358598752</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>801</v>
@@ -7207,19 +7207,19 @@
         <v>588806</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>578643</v>
+        <v>577773</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>597757</v>
+        <v>598514</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9464213548459669</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9300856430130813</v>
+        <v>0.9286884430861769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9608101121836853</v>
+        <v>0.9620267763073561</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1321</v>
@@ -7228,19 +7228,19 @@
         <v>1179276</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1162152</v>
+        <v>1162930</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1192495</v>
+        <v>1193035</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9487523158973895</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9349753338215115</v>
+        <v>0.9356012426293746</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.959386825543187</v>
+        <v>0.9598211543112212</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>43366</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31227</v>
+        <v>31104</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58284</v>
+        <v>58980</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06189647267836362</v>
+        <v>0.0618964726783636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0445708330118584</v>
+        <v>0.04439556432135401</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08318965656717378</v>
+        <v>0.08418272053497508</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -7353,19 +7353,19 @@
         <v>61251</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49738</v>
+        <v>49863</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>73943</v>
+        <v>74207</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.08312182580239202</v>
+        <v>0.08312182580239204</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06749765576282087</v>
+        <v>0.06766672051857006</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1003455863921705</v>
+        <v>0.1007028637493055</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>128</v>
@@ -7374,19 +7374,19 @@
         <v>104617</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>87838</v>
+        <v>87919</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>123776</v>
+        <v>123139</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.07277691446423953</v>
+        <v>0.07277691446423955</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06110483659408676</v>
+        <v>0.0611608384201284</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08610475723147101</v>
+        <v>0.08566201066545906</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>657251</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>642333</v>
+        <v>641637</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>669390</v>
+        <v>669513</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9381035273216364</v>
+        <v>0.9381035273216365</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9168103434328263</v>
+        <v>0.915817279465025</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9554291669881417</v>
+        <v>0.9556044356786461</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1050</v>
@@ -7424,19 +7424,19 @@
         <v>675635</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>662943</v>
+        <v>662679</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>687148</v>
+        <v>687023</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.916878174197608</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8996544136078296</v>
+        <v>0.8992971362506944</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9325023442371794</v>
+        <v>0.9323332794814296</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1678</v>
@@ -7445,19 +7445,19 @@
         <v>1332887</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1313728</v>
+        <v>1314365</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1349666</v>
+        <v>1349585</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9272230855357603</v>
+        <v>0.9272230855357606</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9138952427685287</v>
+        <v>0.914337989334541</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9388951634059133</v>
+        <v>0.9388391615798716</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>44672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33371</v>
+        <v>33311</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>57221</v>
+        <v>58882</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07331136222430684</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05476463583915074</v>
+        <v>0.05466699475215563</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09390546072649121</v>
+        <v>0.09663191560601815</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -7570,19 +7570,19 @@
         <v>77455</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>64413</v>
+        <v>65158</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>91018</v>
+        <v>91078</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1272801629660268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1058486284350125</v>
+        <v>0.1070731761937042</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1495684197301469</v>
+        <v>0.1496663685098274</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>169</v>
@@ -7591,19 +7591,19 @@
         <v>122127</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>106259</v>
+        <v>104743</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>140719</v>
+        <v>141107</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.100277823237714</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08724871498764894</v>
+        <v>0.08600375701131532</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1155440954746482</v>
+        <v>0.1158622179284528</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>564674</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>552125</v>
+        <v>550464</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>575975</v>
+        <v>576035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9266886377756933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9060945392735089</v>
+        <v>0.9033680843939819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9452353641608492</v>
+        <v>0.9453330052478445</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>881</v>
@@ -7641,19 +7641,19 @@
         <v>531082</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>517519</v>
+        <v>517459</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>544124</v>
+        <v>543379</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8727198370339733</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8504315802698534</v>
+        <v>0.8503336314901726</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8941513715649875</v>
+        <v>0.8929268238062956</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1495</v>
@@ -7662,19 +7662,19 @@
         <v>1095756</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1077164</v>
+        <v>1076776</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1111624</v>
+        <v>1113140</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8997221767622862</v>
+        <v>0.8997221767622861</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8844559045253522</v>
+        <v>0.8841377820715469</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9127512850123511</v>
+        <v>0.9139962429886844</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>30281</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22585</v>
+        <v>22109</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41277</v>
+        <v>41338</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07449277758327395</v>
+        <v>0.07449277758327397</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05556004104941301</v>
+        <v>0.0543884476079849</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1015447015259735</v>
+        <v>0.101694805044333</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -7787,19 +7787,19 @@
         <v>63430</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>52693</v>
+        <v>53502</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>74422</v>
+        <v>75661</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1444324969711658</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1199847552163443</v>
+        <v>0.1218259493832775</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1694612810028894</v>
+        <v>0.1722827883384209</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>154</v>
@@ -7808,19 +7808,19 @@
         <v>93711</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79798</v>
+        <v>79605</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110339</v>
+        <v>108189</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1108137238155368</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09436199709573743</v>
+        <v>0.09413348006956566</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1304763868004878</v>
+        <v>0.1279342035644876</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>376212</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>365216</v>
+        <v>365155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>383908</v>
+        <v>384384</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9255072224167259</v>
+        <v>0.925507222416726</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8984552984740267</v>
+        <v>0.8983051949556676</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9444399589505875</v>
+        <v>0.9456115523920151</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>715</v>
@@ -7858,19 +7858,19 @@
         <v>375736</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>364744</v>
+        <v>363505</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>386473</v>
+        <v>385664</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8555675030288342</v>
+        <v>0.8555675030288341</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8305387189971107</v>
+        <v>0.8277172116615793</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8800152447836558</v>
+        <v>0.8781740506167227</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1242</v>
@@ -7879,19 +7879,19 @@
         <v>751949</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>735321</v>
+        <v>737471</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>765862</v>
+        <v>766055</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8891862761844632</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8695236131995128</v>
+        <v>0.8720657964355124</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9056380029042627</v>
+        <v>0.9058665199304341</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>35113</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26653</v>
+        <v>27084</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>46194</v>
+        <v>45225</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1134209208172479</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08609451873872728</v>
+        <v>0.087484856754622</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1492138527742348</v>
+        <v>0.1460837020923169</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>206</v>
@@ -8004,19 +8004,19 @@
         <v>116792</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102891</v>
+        <v>102889</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>131876</v>
+        <v>130682</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2522373714818387</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2222157829290032</v>
+        <v>0.2222109735908605</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2848132880724746</v>
+        <v>0.2822344503674625</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>258</v>
@@ -8025,19 +8025,19 @@
         <v>151905</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>135648</v>
+        <v>134040</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>169534</v>
+        <v>169052</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1966137962870309</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1755712925496481</v>
+        <v>0.1734905182657091</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2194306088821481</v>
+        <v>0.2188071207324873</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>274470</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>263389</v>
+        <v>264358</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>282930</v>
+        <v>282499</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8865790791827521</v>
+        <v>0.8865790791827524</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8507861472257654</v>
+        <v>0.8539162979076833</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.913905481261273</v>
+        <v>0.912515143245378</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>672</v>
@@ -8075,19 +8075,19 @@
         <v>346233</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>331149</v>
+        <v>332343</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>360134</v>
+        <v>360136</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7477626285181611</v>
+        <v>0.7477626285181613</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.715186711927525</v>
+        <v>0.7177655496325377</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7777842170709968</v>
+        <v>0.7777890264091398</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1077</v>
@@ -8096,19 +8096,19 @@
         <v>620702</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>603073</v>
+        <v>603555</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>636959</v>
+        <v>638567</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8033862037129691</v>
+        <v>0.8033862037129692</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.780569391117852</v>
+        <v>0.7811928792675129</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8244287074503523</v>
+        <v>0.8265094817342911</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>202972</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>176096</v>
+        <v>176449</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>233101</v>
+        <v>233464</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0574738507724156</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04986364540248824</v>
+        <v>0.04996355194613659</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06600516980414559</v>
+        <v>0.066107937619137</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>606</v>
@@ -8221,19 +8221,19 @@
         <v>402803</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>369683</v>
+        <v>367984</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>438360</v>
+        <v>438052</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1078931166245219</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09902182280590767</v>
+        <v>0.09856670474054721</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1174174911417711</v>
+        <v>0.1173348062631085</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>822</v>
@@ -8242,19 +8242,19 @@
         <v>605775</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>563851</v>
+        <v>564411</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>651438</v>
+        <v>651615</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08338369976374024</v>
+        <v>0.08338369976374026</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07761295882796553</v>
+        <v>0.07769003416436204</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08966912292211414</v>
+        <v>0.08969348534244773</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3328588</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3298459</v>
+        <v>3298096</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3355464</v>
+        <v>3355111</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9425261492275845</v>
+        <v>0.9425261492275846</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9339948301958544</v>
+        <v>0.9338920623808629</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9501363545975118</v>
+        <v>0.9500364480538633</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4754</v>
@@ -8292,19 +8292,19 @@
         <v>3330545</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3294988</v>
+        <v>3295296</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3363665</v>
+        <v>3365364</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8921068833754782</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8825825088582291</v>
+        <v>0.8826651937368915</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9009781771940923</v>
+        <v>0.9014332952594525</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7912</v>
@@ -8313,19 +8313,19 @@
         <v>6659134</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6613471</v>
+        <v>6613294</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6701058</v>
+        <v>6700498</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9166163002362596</v>
+        <v>0.9166163002362595</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9103308770778858</v>
+        <v>0.9103065146575522</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9223870411720344</v>
+        <v>0.9223099658356378</v>
       </c>
     </row>
     <row r="27">
